--- a/ccbhc_measurements/dashboard/excel files/SDOH_sub_1.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/SDOH_sub_1.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,15 +455,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>numerator_desc</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>screening_id</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>screening_date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>medicaid</t>
         </is>
@@ -472,232 +477,317 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11332-2024</t>
+          <t>1002-2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11332</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Screened with valid standardized tool</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>52210</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="G2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20202-2024</t>
+          <t>1003-2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20202</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No screening recorded</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="b">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26287-2024</t>
+          <t>1004-2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26287</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No screening recorded</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="b">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>32851-2024</t>
+          <t>1005-2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>32851</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Screened with valid standardized tool</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>54501</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="G5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>34899-2024</t>
+          <t>1006-2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>34899</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Screened with valid standardized tool</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>43781</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>35383-2024</t>
+          <t>1009-2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>35383</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No screening recorded</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="b">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>36963-2024</t>
+          <t>1010-2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>36963</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No screening recorded</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="b">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>44221-2024</t>
+          <t>1011-2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>44221</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Screened with valid standardized tool</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89626</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="G9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>45421-2024</t>
+          <t>1013-2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>45421</t>
+          <t>1013</t>
         </is>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No screening recorded</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="b">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>49143-2024</t>
+          <t>1016-2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>49143</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No screening recorded</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="b">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>56517-2024</t>
+          <t>1019-2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>56517</t>
+          <t>1019</t>
         </is>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Screened with valid standardized tool</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25647</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45490</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>58898-2024</t>
+          <t>1020-2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>58898</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -705,139 +795,168 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>744648</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="F13" t="b">
+          <t>Screened with valid standardized tool</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>41885</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="G13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>64017-2024</t>
+          <t>1021-2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>64017</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No screening recorded</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="b">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>64607-2024</t>
+          <t>1026-2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>64607</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No screening recorded</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="b">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>76051-2024</t>
+          <t>1027-2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>76051</t>
+          <t>1027</t>
         </is>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No screening recorded</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="b">
-        <v>0</v>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>86683-2024</t>
+          <t>1028-2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>86683</t>
+          <t>1028</t>
         </is>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No screening recorded</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="b">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>90185-2024</t>
+          <t>1029-2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>90185</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No screening recorded</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="b">
-        <v>0</v>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>92210-2024</t>
+          <t>1030-2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>92210</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>327006</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="F19" t="b">
+          <t>No screening recorded</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="b">
         <v>0</v>
       </c>
     </row>
